--- a/Forms/resource-form.xlsx
+++ b/Forms/resource-form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\Form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\e-mis\src\e-mis\Ecoba.Web.Api\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1F4209-B9E8-48EB-93D8-F98BD47AAF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973A5E80-FB26-4974-8608-E960BD20A788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Đơn vị</t>
   </si>
   <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
     <t>Tùy chọn</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Diễn giải vật tư</t>
+  </si>
+  <si>
+    <t>Định mức</t>
   </si>
 </sst>
 </file>
@@ -267,9 +267,6 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -290,6 +287,9 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -577,33 +577,33 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.796875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="39" style="24" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="39" style="23" customWidth="1"/>
     <col min="4" max="4" width="7.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="39" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.59765625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="39" style="23" customWidth="1"/>
     <col min="7" max="7" width="7.796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="19.19921875" style="26" customWidth="1"/>
     <col min="9" max="23" width="9.19921875" style="16"/>
     <col min="24" max="16384" width="9.19921875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
-        <v>12</v>
+      <c r="B1" s="27" t="s">
+        <v>11</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -619,16 +619,16 @@
         <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -695,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>0</v>
@@ -757,13 +757,13 @@
     </row>
     <row r="6" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -782,13 +782,13 @@
     </row>
     <row r="7" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -807,13 +807,13 @@
     </row>
     <row r="8" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -832,13 +832,13 @@
     </row>
     <row r="9" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -857,13 +857,13 @@
     </row>
     <row r="10" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -882,13 +882,13 @@
     </row>
     <row r="11" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -907,13 +907,13 @@
     </row>
     <row r="12" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -932,13 +932,13 @@
     </row>
     <row r="13" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -957,13 +957,13 @@
     </row>
     <row r="14" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
@@ -982,13 +982,13 @@
     </row>
     <row r="15" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="16" spans="1:23" s="6" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
@@ -5396,6 +5396,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E3A2BDB0A510D4D9FCECF3617DF26F7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24c8da618c93c290966d4724c4a13839">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="233af1b8-3318-4c33-b3c1-64ef0d4722c0" xmlns:ns4="2d1c98be-e375-4837-84b3-0051639a5448" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45cf452450b7d02069a2f27cdbfde88" ns3:_="" ns4:_="">
     <xsd:import namespace="233af1b8-3318-4c33-b3c1-64ef0d4722c0"/>
@@ -5604,12 +5610,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5620,6 +5620,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4A540C5-6C33-4F70-A9D3-448C9355844F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2d1c98be-e375-4837-84b3-0051639a5448"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="233af1b8-3318-4c33-b3c1-64ef0d4722c0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D9A1B21-0222-41DD-A194-655E086F0399}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5638,23 +5655,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4A540C5-6C33-4F70-A9D3-448C9355844F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2d1c98be-e375-4837-84b3-0051639a5448"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="233af1b8-3318-4c33-b3c1-64ef0d4722c0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C89AACB-3BED-4E44-AEF6-66397EF58F2D}">
   <ds:schemaRefs>
